--- a/SimpCity US3 Test Document (3 Pass 0 Fail).xlsx
+++ b/SimpCity US3 Test Document (3 Pass 0 Fail).xlsx
@@ -5,26 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huiyi\Downloads\Year 3-Poly\Sem 3.2 DevOps\Tesr Documents\Sprint 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clari\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB6CBFA-8E50-4243-A17B-4F09A039E393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D39782B-5F2A-495D-909F-092104D3E80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5448" yWindow="3624" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="US3 &amp; US16 Sprint 5 " sheetId="23" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1092,6 +1089,40 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -1104,12 +1135,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1128,40 +1153,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1615,31 +1612,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A31C1A7-6C2E-4081-A09E-5689D6684B15}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="9"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1"/>
-    <col min="3" max="3" width="44.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
-    <col min="5" max="5" width="44.5703125" customWidth="1"/>
-    <col min="6" max="6" width="31.140625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="9"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
+    <col min="3" max="3" width="44.5546875" customWidth="1"/>
+    <col min="4" max="4" width="29.44140625" customWidth="1"/>
+    <col min="5" max="5" width="44.5546875" customWidth="1"/>
+    <col min="6" max="6" width="31.109375" style="9" customWidth="1"/>
     <col min="7" max="7" width="18" style="9" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="9" customWidth="1"/>
     <col min="9" max="9" width="182" style="9" customWidth="1"/>
-    <col min="10" max="10" width="25.140625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="25.109375" style="9" customWidth="1"/>
+    <col min="11" max="11" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17"/>
-      <c r="B1" s="115" t="s">
+      <c r="B1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="115"/>
+      <c r="C1" s="109"/>
       <c r="D1" s="40"/>
       <c r="E1" s="38"/>
       <c r="F1" s="42"/>
@@ -1650,29 +1647,29 @@
       <c r="K1" s="11"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="37"/>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="99"/>
+      <c r="C2" s="111"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="111" t="s">
+      <c r="E2" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="99"/>
+      <c r="F2" s="111"/>
       <c r="G2" s="18"/>
-      <c r="H2" s="99" t="s">
+      <c r="H2" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="99"/>
-      <c r="J2" s="111" t="s">
+      <c r="I2" s="111"/>
+      <c r="J2" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="112"/>
+      <c r="K2" s="121"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
       <c r="B3" s="24" t="s">
         <v>5</v>
@@ -1702,7 +1699,7 @@
       </c>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="47" t="s">
         <v>10</v>
@@ -1730,7 +1727,7 @@
       </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="18"/>
       <c r="B5" s="25" t="s">
         <v>16</v>
@@ -1758,7 +1755,7 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="29" t="s">
         <v>17</v>
@@ -1786,32 +1783,32 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="113"/>
+      <c r="C7" s="122"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="113" t="s">
+      <c r="E7" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="113"/>
+      <c r="F7" s="122"/>
       <c r="G7" s="23"/>
-      <c r="H7" s="113" t="s">
+      <c r="H7" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="113"/>
+      <c r="I7" s="122"/>
       <c r="J7"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="61" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="63" t="s">
@@ -1831,7 +1828,7 @@
       <c r="K8" s="36"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="48"/>
       <c r="C9" s="58"/>
@@ -1840,7 +1837,7 @@
         <v>24</v>
       </c>
       <c r="F9" s="62" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="66" t="s">
@@ -1853,7 +1850,7 @@
       <c r="K9" s="10"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="D10" s="6"/>
       <c r="E10" s="1"/>
@@ -1869,7 +1866,7 @@
       <c r="K10" s="10"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1883,7 +1880,7 @@
       <c r="K11" s="12"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="70"/>
       <c r="B12" s="13"/>
       <c r="C12" s="55"/>
@@ -1896,7 +1893,7 @@
       <c r="J12" s="15"/>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A13" s="71" t="s">
         <v>27</v>
       </c>
@@ -1931,38 +1928,38 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="81" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="100">
+    <row r="14" spans="1:12" s="81" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="112">
         <v>1</v>
       </c>
-      <c r="B14" s="101" t="s">
+      <c r="B14" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="103" t="s">
+      <c r="C14" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="105" t="s">
+      <c r="D14" s="115" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="106"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="108"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="110"/>
-    </row>
-    <row r="15" spans="1:12" s="79" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="100"/>
-      <c r="B15" s="102"/>
-      <c r="C15" s="104"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="120"/>
+    </row>
+    <row r="15" spans="1:12" s="79" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="112"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="107"/>
       <c r="D15" s="92" t="s">
         <v>56</v>
       </c>
       <c r="E15" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="114" t="s">
+      <c r="F15" s="108" t="s">
         <v>40</v>
       </c>
       <c r="G15" s="82" t="s">
@@ -1977,7 +1974,7 @@
       </c>
       <c r="K15" s="80"/>
     </row>
-    <row r="16" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="83">
         <v>2</v>
       </c>
@@ -1993,7 +1990,7 @@
       <c r="E16" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="114"/>
+      <c r="F16" s="108"/>
       <c r="G16" s="87" t="s">
         <v>38</v>
       </c>
@@ -2006,7 +2003,7 @@
       </c>
       <c r="K16" s="91"/>
     </row>
-    <row r="17" spans="1:11" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="93">
         <v>3</v>
       </c>
@@ -2022,7 +2019,7 @@
       <c r="E17" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="114"/>
+      <c r="F17" s="108"/>
       <c r="G17" s="87" t="s">
         <v>38</v>
       </c>
@@ -2035,23 +2032,23 @@
       </c>
       <c r="K17" s="97"/>
     </row>
-    <row r="18" spans="1:11" s="122" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="116"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="121"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="105" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="99"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="104"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="104"/>
+      <c r="C19" s="107"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="8"/>
@@ -2061,7 +2058,7 @@
       <c r="J19" s="8"/>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2074,7 +2071,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2087,7 +2084,7 @@
       <c r="J21" s="8"/>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2100,7 +2097,7 @@
       <c r="J22" s="8"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2113,7 +2110,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2128,11 +2125,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
@@ -2143,6 +2135,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F15" xr:uid="{46D128ED-EC01-4D09-8017-B46977249430}">
